--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t xml:space="preserve">Ülke (İngilizce)</t>
   </si>
@@ -1741,6 +1741,18 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabve</t>
+  </si>
+  <si>
+    <t>Nüfus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2030,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
@@ -2026,7 +2038,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.71"/>
+    <col min="1" max="4" customWidth="true" hidden="false" style="0" width="25.71" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,6 +2054,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2056,6 +2071,9 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -2168,6 +2186,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -2237,6 +2258,9 @@
       </c>
       <c r="D15" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
